--- a/corte relleno.xlsx
+++ b/corte relleno.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>diagrama masas</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>/100*100</t>
+  </si>
+  <si>
+    <t>asdasd</t>
   </si>
 </sst>
 </file>
@@ -379,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,6 +1840,11 @@
       <c r="D46">
         <f>SUM(D3:D45)</f>
         <v>34.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/corte relleno.xlsx
+++ b/corte relleno.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>diagrama masas</t>
   </si>
@@ -42,7 +43,7 @@
     <t>/100*100</t>
   </si>
   <si>
-    <t>asdasd</t>
+    <t>cada 1 km</t>
   </si>
 </sst>
 </file>
@@ -382,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +396,7 @@
     <col min="7" max="7" width="11.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +409,11 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -437,8 +441,20 @@
       <c r="J2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -463,8 +479,22 @@
         <f>D3/10000</f>
         <v>1.1070000000000001E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3">
+        <f>SUM(C3:C12)</f>
+        <v>10413.32</v>
+      </c>
+      <c r="N3">
+        <f>SUM(D3:D12)</f>
+        <v>22.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>100</v>
       </c>
@@ -489,8 +519,22 @@
         <f t="shared" ref="J4:J45" si="2">D4/10000</f>
         <v>1.1070000000000001E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1000</v>
+      </c>
+      <c r="L4">
+        <v>2000</v>
+      </c>
+      <c r="M4">
+        <f>SUM(C13:C22)</f>
+        <v>8691.5300000000007</v>
+      </c>
+      <c r="N4">
+        <f>SUM(D13:D22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>200</v>
       </c>
@@ -512,8 +556,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>2000</v>
+      </c>
+      <c r="L5">
+        <v>3000</v>
+      </c>
+      <c r="M5">
+        <f>SUM(C23:C32)</f>
+        <v>9406.2900000000009</v>
+      </c>
+      <c r="N5">
+        <f>SUM(D23:D32)</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>300</v>
       </c>
@@ -541,8 +599,22 @@
         <f t="shared" si="2"/>
         <v>1.3000000000000001E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>3000</v>
+      </c>
+      <c r="L6">
+        <v>4000</v>
+      </c>
+      <c r="M6">
+        <f>SUM(C33:C42)</f>
+        <v>13749.679999999998</v>
+      </c>
+      <c r="N6">
+        <f>SUM(D33:D42)</f>
+        <v>11.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>400</v>
       </c>
@@ -575,8 +647,22 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>4000</v>
+      </c>
+      <c r="L7">
+        <v>4300</v>
+      </c>
+      <c r="M7">
+        <f>SUM(C43:C45)</f>
+        <v>2677.32</v>
+      </c>
+      <c r="N7">
+        <f>SUM(D43:D45)</f>
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>500</v>
       </c>
@@ -609,8 +695,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <f>SUM(M3:M7)</f>
+        <v>44938.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>600</v>
       </c>
@@ -644,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>700</v>
       </c>
@@ -678,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>800</v>
       </c>
@@ -712,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>900</v>
       </c>
@@ -746,7 +836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1000</v>
       </c>
@@ -780,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1100</v>
       </c>
@@ -814,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1200</v>
       </c>
@@ -848,7 +938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1300</v>
       </c>
@@ -1840,11 +1930,6 @@
       <c r="D46">
         <f>SUM(D3:D45)</f>
         <v>34.26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/corte relleno.xlsx
+++ b/corte relleno.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -386,7 +385,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,6 +697,10 @@
       <c r="M8">
         <f>SUM(M3:M7)</f>
         <v>44938.14</v>
+      </c>
+      <c r="N8">
+        <f>SUM(N3:N7)</f>
+        <v>34.26</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">

--- a/corte relleno.xlsx
+++ b/corte relleno.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>diagrama masas</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
   <si>
     <t>de</t>
   </si>
@@ -44,12 +41,35 @@
   <si>
     <t>cada 1 km</t>
   </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>Desbroce, desbosque</t>
+  </si>
+  <si>
+    <t>Progresivas</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>VOLUMEN
+(m3)</t>
+  </si>
+  <si>
+    <t>ACUMULADO
+(m3)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,16 +77,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -74,13 +113,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,1560 +480,1920 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection sqref="A1:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="5" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
+    <row r="1" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="P2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="2">
         <v>1784.1</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="2">
+        <f>D3</f>
+        <v>1784.1</v>
+      </c>
+      <c r="F3">
         <v>11.07</v>
       </c>
-      <c r="H3">
-        <f>C3/500000</f>
+      <c r="K3">
+        <f>D3/500000</f>
         <v>3.5681999999999997E-3</v>
       </c>
-      <c r="I3">
-        <f>D3/500000</f>
+      <c r="L3">
+        <f>F3/500000</f>
         <v>2.2140000000000001E-5</v>
       </c>
-      <c r="J3">
-        <f>D3/10000</f>
+      <c r="M3">
+        <f>F3/10000</f>
         <v>1.1070000000000001E-3</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>1000</v>
       </c>
-      <c r="M3">
-        <f>SUM(C3:C12)</f>
+      <c r="P3">
+        <f>SUM(D3:D12)</f>
         <v>10413.32</v>
       </c>
-      <c r="N3">
-        <f>SUM(D3:D12)</f>
+      <c r="Q3">
+        <f>SUM(F3:F12)</f>
         <v>22.27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="2">
         <v>200</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="2">
         <v>703.55</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="2">
+        <f>D4+E3</f>
+        <v>2487.6499999999996</v>
+      </c>
+      <c r="F4">
         <v>11.07</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H45" si="0">C4/500000</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K45" si="0">D4/500000</f>
         <v>1.4070999999999999E-3</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I45" si="1">D4/500000</f>
+      <c r="L4">
+        <f t="shared" ref="L4:L45" si="1">F4/500000</f>
         <v>2.2140000000000001E-5</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J45" si="2">D4/10000</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M45" si="2">F4/10000</f>
         <v>1.1070000000000001E-3</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>1000</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>2000</v>
       </c>
-      <c r="M4">
-        <f>SUM(C13:C22)</f>
+      <c r="P4">
+        <f>SUM(D13:D22)</f>
         <v>8691.5300000000007</v>
       </c>
-      <c r="N4">
-        <f>SUM(D13:D22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="Q4">
+        <f>SUM(F13:F22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
         <v>200</v>
       </c>
-      <c r="B5">
+      <c r="C5" s="2">
         <v>300</v>
       </c>
-      <c r="C5">
+      <c r="D5" s="2">
         <v>1950.32</v>
       </c>
-      <c r="H5">
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E45" si="3">D5+E4</f>
+        <v>4437.9699999999993</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>3.9006399999999999E-3</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>2000</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>3000</v>
       </c>
-      <c r="M5">
-        <f>SUM(C23:C32)</f>
+      <c r="P5">
+        <f>SUM(D23:D32)</f>
         <v>9406.2900000000009</v>
       </c>
-      <c r="N5">
-        <f>SUM(D23:D32)</f>
+      <c r="Q5">
+        <f>SUM(F23:F32)</f>
         <v>0.74</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
         <v>300</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="2">
         <v>400</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="2">
         <v>911.88</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="2">
+        <f t="shared" si="3"/>
+        <v>5349.8499999999995</v>
+      </c>
+      <c r="F6">
         <v>0.13</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>5349.85</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>1.82376E-3</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <f t="shared" si="1"/>
         <v>2.6E-7</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <f t="shared" si="2"/>
         <v>1.3000000000000001E-5</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>3000</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>4000</v>
       </c>
-      <c r="M6">
-        <f>SUM(C33:C42)</f>
+      <c r="P6">
+        <f>SUM(D33:D42)</f>
         <v>13749.679999999998</v>
       </c>
-      <c r="N6">
-        <f>SUM(D33:D42)</f>
+      <c r="Q6">
+        <f>SUM(F33:F42)</f>
         <v>11.06</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
         <v>400</v>
       </c>
-      <c r="B7">
+      <c r="C7" s="2">
         <v>500</v>
       </c>
-      <c r="C7">
+      <c r="D7" s="2">
         <v>1405.39</v>
       </c>
-      <c r="E7">
-        <f>F7-F6</f>
+      <c r="E7" s="2">
+        <f t="shared" si="3"/>
+        <v>6755.24</v>
+      </c>
+      <c r="G7">
+        <f>H7-H6</f>
         <v>1405.3899999999994</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>6755.24</v>
       </c>
-      <c r="G7" s="1">
-        <f>E7-C7</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="I7" s="1">
+        <f>G7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>2.8107800000000001E-3</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>4000</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>4300</v>
       </c>
-      <c r="M7">
-        <f>SUM(C43:C45)</f>
+      <c r="P7">
+        <f>SUM(D43:D45)</f>
         <v>2677.32</v>
       </c>
-      <c r="N7">
-        <f>SUM(D43:D45)</f>
+      <c r="Q7">
+        <f>SUM(F43:F45)</f>
         <v>0.19</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
         <v>500</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="2">
         <v>600</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="2">
         <v>754.24</v>
       </c>
-      <c r="E8">
-        <f t="shared" ref="E8:E45" si="3">F8-F7</f>
+      <c r="E8" s="2">
+        <f t="shared" si="3"/>
+        <v>7509.48</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G45" si="4">H8-H7</f>
         <v>754.23999999999978</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>7509.48</v>
       </c>
-      <c r="G8" s="1">
-        <f t="shared" ref="G8:G45" si="4">E8-C8</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="I8" s="1">
+        <f t="shared" ref="I8:I45" si="5">G8-D8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>1.50848E-3</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="2"/>
+      <c r="L8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f>SUM(M3:M7)</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>SUM(P3:P7)</f>
         <v>44938.14</v>
       </c>
-      <c r="N8">
-        <f>SUM(N3:N7)</f>
+      <c r="Q8">
+        <f>SUM(Q3:Q7)</f>
         <v>34.26</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
         <v>600</v>
       </c>
-      <c r="B9">
+      <c r="C9" s="2">
         <v>700</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="2">
         <v>859.31</v>
       </c>
-      <c r="E9">
-        <f>F9-F8</f>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>8368.7899999999991</v>
+      </c>
+      <c r="G9">
+        <f>H9-H8</f>
         <v>859.31000000000131</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>8368.7900000000009</v>
       </c>
-      <c r="G9" s="1">
-        <f t="shared" si="4"/>
+      <c r="I9" s="1">
+        <f t="shared" si="5"/>
         <v>1.3642420526593924E-12</v>
       </c>
-      <c r="H9">
+      <c r="J9" s="1"/>
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>1.7186199999999999E-3</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>700</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="2">
         <v>800</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="2">
         <v>875.21</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
+        <v>9244</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
         <v>875.20999999999913</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>9244</v>
       </c>
-      <c r="G10" s="1">
-        <f t="shared" si="4"/>
+      <c r="I10" s="1">
+        <f t="shared" si="5"/>
         <v>-9.0949470177292824E-13</v>
       </c>
-      <c r="H10">
+      <c r="J10" s="1"/>
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>1.7504200000000001E-3</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
         <v>800</v>
       </c>
-      <c r="B11">
+      <c r="C11" s="2">
         <v>900</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="2">
         <v>553.85</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
+      <c r="E11" s="2">
+        <f t="shared" si="3"/>
+        <v>9797.85</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
         <v>553.85000000000036</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>9797.85</v>
       </c>
-      <c r="G11" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
+      <c r="I11" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>1.1077000000000001E-3</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
         <v>900</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="2">
         <v>1000</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="2">
         <v>615.47</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
+      <c r="E12" s="2">
+        <f t="shared" si="3"/>
+        <v>10413.32</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
         <v>615.46999999999935</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>10413.32</v>
       </c>
-      <c r="G12" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
+      <c r="I12" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>1.23094E-3</v>
       </c>
-      <c r="I12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
         <v>1000</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="2">
         <v>1100</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="2">
         <v>719.31</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
+      <c r="E13" s="2">
+        <f t="shared" si="3"/>
+        <v>11132.63</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
         <v>719.30999999999949</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>11132.63</v>
       </c>
-      <c r="G13" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="I13" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>1.4386199999999998E-3</v>
       </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
         <v>1100</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="2">
         <v>1200</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="2">
         <v>779.96</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
+      <c r="E14" s="2">
+        <f t="shared" si="3"/>
+        <v>11912.59</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
         <v>779.96000000000095</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>11912.59</v>
       </c>
-      <c r="G14" s="1">
-        <f t="shared" si="4"/>
+      <c r="I14" s="1">
+        <f t="shared" si="5"/>
         <v>9.0949470177292824E-13</v>
       </c>
-      <c r="H14">
+      <c r="J14" s="1"/>
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>1.55992E-3</v>
       </c>
-      <c r="I14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
         <v>1200</v>
       </c>
-      <c r="B15">
+      <c r="C15" s="2">
         <v>1300</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="2">
         <v>544.73</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
+      <c r="E15" s="2">
+        <f t="shared" si="3"/>
+        <v>12457.32</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="4"/>
         <v>544.72999999999956</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>12457.32</v>
       </c>
-      <c r="G15" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
+      <c r="I15" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>1.08946E-3</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2">
         <v>1300</v>
       </c>
-      <c r="B16">
+      <c r="C16" s="2">
         <v>1400</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="2">
         <v>755.61</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
+      <c r="E16" s="2">
+        <f t="shared" si="3"/>
+        <v>13212.93</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="4"/>
         <v>755.61000000000058</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>13212.93</v>
       </c>
-      <c r="G16" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="I16" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>1.51122E-3</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2">
         <v>1400</v>
       </c>
-      <c r="B17">
+      <c r="C17" s="2">
         <v>1500</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="2">
         <v>1156.8</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
+      <c r="E17" s="2">
+        <f t="shared" si="3"/>
+        <v>14369.73</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="4"/>
         <v>1156.7999999999993</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>14369.73</v>
       </c>
-      <c r="G17" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H17">
+      <c r="I17" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>2.3135999999999999E-3</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
         <v>1500</v>
       </c>
-      <c r="B18">
+      <c r="C18" s="2">
         <v>1600</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="2">
         <v>1152.19</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>15521.92</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="4"/>
         <v>1152.1900000000005</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>15521.92</v>
       </c>
-      <c r="G18" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H18">
+      <c r="I18" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>2.30438E-3</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
         <v>1600</v>
       </c>
-      <c r="B19">
+      <c r="C19" s="2">
         <v>1700</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="2">
         <v>1038.46</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
+      <c r="E19" s="2">
+        <f t="shared" si="3"/>
+        <v>16560.38</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="4"/>
         <v>1038.4600000000009</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>16560.38</v>
       </c>
-      <c r="G19" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H19">
+      <c r="I19" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>2.0769199999999999E-3</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
         <v>1700</v>
       </c>
-      <c r="B20">
+      <c r="C20" s="2">
         <v>1800</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="2">
         <v>643.17999999999995</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
+      <c r="E20" s="2">
+        <f t="shared" si="3"/>
+        <v>17203.560000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
         <v>643.18000000000029</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>17203.560000000001</v>
       </c>
-      <c r="G20" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H20">
+      <c r="I20" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>1.2863599999999998E-3</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2">
         <v>1800</v>
       </c>
-      <c r="B21">
+      <c r="C21" s="2">
         <v>1900</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="2">
         <v>1116.3399999999999</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
+      <c r="E21" s="2">
+        <f t="shared" si="3"/>
+        <v>18319.900000000001</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="4"/>
         <v>1116.3400000000001</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>18319.900000000001</v>
       </c>
-      <c r="G21" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H21">
+      <c r="I21" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>2.2326799999999999E-3</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2">
         <v>1900</v>
       </c>
-      <c r="B22">
+      <c r="C22" s="2">
         <v>2000</v>
       </c>
-      <c r="C22">
+      <c r="D22" s="2">
         <v>784.95</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
+      <c r="E22" s="2">
+        <f t="shared" si="3"/>
+        <v>19104.850000000002</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="4"/>
         <v>784.94999999999709</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>19104.849999999999</v>
       </c>
-      <c r="G22" s="1">
-        <f t="shared" si="4"/>
+      <c r="I22" s="1">
+        <f t="shared" si="5"/>
         <v>-2.9558577807620168E-12</v>
       </c>
-      <c r="H22">
+      <c r="J22" s="1"/>
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>1.5699000000000002E-3</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2">
         <v>2000</v>
       </c>
-      <c r="B23">
+      <c r="C23" s="2">
         <v>2100</v>
       </c>
-      <c r="C23">
+      <c r="D23" s="2">
         <v>1080.24</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
+      <c r="E23" s="2">
+        <f t="shared" si="3"/>
+        <v>20185.090000000004</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="4"/>
         <v>1080.2400000000016</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>20185.09</v>
       </c>
-      <c r="G23" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H23">
+      <c r="I23" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>2.1604800000000002E-3</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
         <v>2100</v>
       </c>
-      <c r="B24">
+      <c r="C24" s="2">
         <v>2200</v>
       </c>
-      <c r="C24">
+      <c r="D24" s="2">
         <v>396.9</v>
       </c>
-      <c r="D24">
+      <c r="E24" s="2">
+        <f t="shared" si="3"/>
+        <v>20581.990000000005</v>
+      </c>
+      <c r="F24">
         <v>0.74</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
+      <c r="G24">
+        <f t="shared" si="4"/>
         <v>396.90000000000146</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>20581.990000000002</v>
       </c>
-      <c r="G24" s="1">
-        <f t="shared" si="4"/>
+      <c r="I24" s="1">
+        <f t="shared" si="5"/>
         <v>1.4779288903810084E-12</v>
       </c>
-      <c r="H24">
+      <c r="J24" s="1"/>
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>7.938E-4</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <f t="shared" si="1"/>
         <v>1.48E-6</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <f t="shared" si="2"/>
         <v>7.3999999999999996E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2">
         <v>2200</v>
       </c>
-      <c r="B25">
+      <c r="C25" s="2">
         <v>2300</v>
       </c>
-      <c r="C25">
+      <c r="D25" s="2">
         <v>1114.22</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="3"/>
+      <c r="E25" s="2">
+        <f t="shared" si="3"/>
+        <v>21696.210000000006</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="4"/>
         <v>1114.2199999999975</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>21696.21</v>
       </c>
-      <c r="G25" s="1">
-        <f t="shared" si="4"/>
+      <c r="I25" s="1">
+        <f t="shared" si="5"/>
         <v>-2.5011104298755527E-12</v>
       </c>
-      <c r="H25">
+      <c r="J25" s="1"/>
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>2.2284399999999999E-3</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
         <v>2300</v>
       </c>
-      <c r="B26">
+      <c r="C26" s="2">
         <v>2400</v>
       </c>
-      <c r="C26">
+      <c r="D26" s="2">
         <v>941.18</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="3"/>
+      <c r="E26" s="2">
+        <f t="shared" si="3"/>
+        <v>22637.390000000007</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="4"/>
         <v>941.18000000000029</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>22637.39</v>
       </c>
-      <c r="G26" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H26">
+      <c r="I26" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26">
         <f t="shared" si="0"/>
         <v>1.8823599999999998E-3</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2">
         <v>2400</v>
       </c>
-      <c r="B27">
+      <c r="C27" s="2">
         <v>2500</v>
       </c>
-      <c r="C27">
+      <c r="D27" s="2">
         <v>880.22</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="3"/>
+      <c r="E27" s="2">
+        <f t="shared" si="3"/>
+        <v>23517.610000000008</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="4"/>
         <v>880.22000000000116</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>23517.61</v>
       </c>
-      <c r="G27" s="1">
-        <f t="shared" si="4"/>
+      <c r="I27" s="1">
+        <f t="shared" si="5"/>
         <v>1.1368683772161603E-12</v>
       </c>
-      <c r="H27">
+      <c r="J27" s="1"/>
+      <c r="K27">
         <f t="shared" si="0"/>
         <v>1.7604400000000001E-3</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2">
         <v>2500</v>
       </c>
-      <c r="B28">
+      <c r="C28" s="2">
         <v>2600</v>
       </c>
-      <c r="C28">
+      <c r="D28" s="2">
         <v>1569.14</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="3"/>
+      <c r="E28" s="2">
+        <f t="shared" si="3"/>
+        <v>25086.750000000007</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="4"/>
         <v>1569.1399999999994</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>25086.75</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H28">
+      <c r="I28" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28">
         <f t="shared" si="0"/>
         <v>3.1382800000000002E-3</v>
       </c>
-      <c r="I28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2">
         <v>2600</v>
       </c>
-      <c r="B29">
+      <c r="C29" s="2">
         <v>2700</v>
       </c>
-      <c r="C29">
+      <c r="D29" s="2">
         <v>684.97</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="3"/>
+      <c r="E29" s="2">
+        <f t="shared" si="3"/>
+        <v>25771.720000000008</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
         <v>684.97000000000116</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>25771.72</v>
       </c>
-      <c r="G29" s="1">
-        <f t="shared" si="4"/>
+      <c r="I29" s="1">
+        <f t="shared" si="5"/>
         <v>1.1368683772161603E-12</v>
       </c>
-      <c r="H29">
+      <c r="J29" s="1"/>
+      <c r="K29">
         <f t="shared" si="0"/>
         <v>1.36994E-3</v>
       </c>
-      <c r="I29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2">
         <v>2700</v>
       </c>
-      <c r="B30">
+      <c r="C30" s="2">
         <v>2800</v>
       </c>
-      <c r="C30">
+      <c r="D30" s="2">
         <v>471.54</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="3"/>
+      <c r="E30" s="2">
+        <f t="shared" si="3"/>
+        <v>26243.260000000009</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="4"/>
         <v>471.53999999999724</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>26243.26</v>
       </c>
-      <c r="G30" s="1">
-        <f>E30-C30</f>
+      <c r="I30" s="1">
+        <f>G30-D30</f>
         <v>-2.7853275241795927E-12</v>
       </c>
-      <c r="H30">
+      <c r="J30" s="1"/>
+      <c r="K30">
         <f t="shared" si="0"/>
         <v>9.4308E-4</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2">
         <v>2800</v>
       </c>
-      <c r="B31">
+      <c r="C31" s="2">
         <v>2900</v>
       </c>
-      <c r="C31">
+      <c r="D31" s="2">
         <v>839.92</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
+      <c r="E31" s="2">
+        <f t="shared" si="3"/>
+        <v>27083.180000000008</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="4"/>
         <v>-26243.26</v>
       </c>
-      <c r="G31" s="1">
-        <f t="shared" si="4"/>
+      <c r="I31" s="1">
+        <f t="shared" si="5"/>
         <v>-27083.179999999997</v>
       </c>
-      <c r="H31">
+      <c r="J31" s="1"/>
+      <c r="K31">
         <f t="shared" si="0"/>
         <v>1.6798399999999999E-3</v>
       </c>
-      <c r="I31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2">
         <v>2900</v>
       </c>
-      <c r="B32">
+      <c r="C32" s="2">
         <v>3000</v>
       </c>
-      <c r="C32">
+      <c r="D32" s="2">
         <v>1427.96</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="4"/>
+      <c r="E32" s="2">
+        <f t="shared" si="3"/>
+        <v>28511.140000000007</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="5"/>
         <v>-1427.96</v>
       </c>
-      <c r="H32">
+      <c r="J32" s="1"/>
+      <c r="K32">
         <f t="shared" si="0"/>
         <v>2.8559200000000001E-3</v>
       </c>
-      <c r="I32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2">
         <v>3000</v>
       </c>
-      <c r="B33">
+      <c r="C33" s="2">
         <v>3100</v>
       </c>
-      <c r="C33">
+      <c r="D33" s="2">
         <v>1437.19</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="4"/>
+      <c r="E33" s="2">
+        <f t="shared" si="3"/>
+        <v>29948.330000000005</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="5"/>
         <v>-1437.19</v>
       </c>
-      <c r="H33">
+      <c r="J33" s="1"/>
+      <c r="K33">
         <f t="shared" si="0"/>
         <v>2.8743800000000002E-3</v>
       </c>
-      <c r="I33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2">
         <v>3100</v>
       </c>
-      <c r="B34">
+      <c r="C34" s="2">
         <v>3200</v>
       </c>
-      <c r="C34">
+      <c r="D34" s="2">
         <v>1523.59</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="4"/>
+      <c r="E34" s="2">
+        <f t="shared" si="3"/>
+        <v>31471.920000000006</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="5"/>
         <v>-1523.59</v>
       </c>
-      <c r="H34">
+      <c r="J34" s="1"/>
+      <c r="K34">
         <f t="shared" si="0"/>
         <v>3.04718E-3</v>
       </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2">
         <v>3200</v>
       </c>
-      <c r="B35">
+      <c r="C35" s="2">
         <v>3300</v>
       </c>
-      <c r="C35">
+      <c r="D35" s="2">
         <v>1443.24</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="4"/>
+      <c r="E35" s="2">
+        <f t="shared" si="3"/>
+        <v>32915.160000000003</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="5"/>
         <v>-1443.24</v>
       </c>
-      <c r="H35">
+      <c r="J35" s="1"/>
+      <c r="K35">
         <f t="shared" si="0"/>
         <v>2.8864799999999999E-3</v>
       </c>
-      <c r="I35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2">
         <v>3300</v>
       </c>
-      <c r="B36">
+      <c r="C36" s="2">
         <v>3400</v>
       </c>
-      <c r="C36">
+      <c r="D36" s="2">
         <v>1417.41</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="1">
-        <f t="shared" si="4"/>
+      <c r="E36" s="2">
+        <f t="shared" si="3"/>
+        <v>34332.570000000007</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="5"/>
         <v>-1417.41</v>
       </c>
-      <c r="H36">
+      <c r="J36" s="1"/>
+      <c r="K36">
         <f t="shared" si="0"/>
         <v>2.83482E-3</v>
       </c>
-      <c r="I36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2">
         <v>3400</v>
       </c>
-      <c r="B37">
+      <c r="C37" s="2">
         <v>3500</v>
       </c>
-      <c r="C37">
+      <c r="D37" s="2">
         <v>1691.54</v>
       </c>
-      <c r="D37">
+      <c r="E37" s="2">
+        <f t="shared" si="3"/>
+        <v>36024.110000000008</v>
+      </c>
+      <c r="F37">
         <v>11.06</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="1">
-        <f t="shared" si="4"/>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="5"/>
         <v>-1691.54</v>
       </c>
-      <c r="H37">
+      <c r="J37" s="1"/>
+      <c r="K37">
         <f t="shared" si="0"/>
         <v>3.3830800000000001E-3</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <f t="shared" si="1"/>
         <v>2.2120000000000002E-5</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <f t="shared" si="2"/>
         <v>1.106E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2">
         <v>3500</v>
       </c>
-      <c r="B38">
+      <c r="C38" s="2">
         <v>3600</v>
       </c>
-      <c r="C38">
+      <c r="D38" s="2">
         <v>1718.47</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <f t="shared" si="4"/>
+      <c r="E38" s="2">
+        <f t="shared" si="3"/>
+        <v>37742.580000000009</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="5"/>
         <v>-1718.47</v>
       </c>
-      <c r="H38">
+      <c r="J38" s="1"/>
+      <c r="K38">
         <f t="shared" si="0"/>
         <v>3.4369399999999999E-3</v>
       </c>
-      <c r="I38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2">
         <v>3600</v>
       </c>
-      <c r="B39">
+      <c r="C39" s="2">
         <v>3700</v>
       </c>
-      <c r="C39">
+      <c r="D39" s="2">
         <v>798.07</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="4"/>
+      <c r="E39" s="2">
+        <f t="shared" si="3"/>
+        <v>38540.650000000009</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="5"/>
         <v>-798.07</v>
       </c>
-      <c r="H39">
+      <c r="J39" s="1"/>
+      <c r="K39">
         <f t="shared" si="0"/>
         <v>1.59614E-3</v>
       </c>
-      <c r="I39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="2">
         <v>3700</v>
       </c>
-      <c r="B40">
+      <c r="C40" s="2">
         <v>3800</v>
       </c>
-      <c r="C40">
+      <c r="D40" s="2">
         <v>1075.1099999999999</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="4"/>
+      <c r="E40" s="2">
+        <f t="shared" si="3"/>
+        <v>39615.760000000009</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="5"/>
         <v>-1075.1099999999999</v>
       </c>
-      <c r="H40">
+      <c r="J40" s="1"/>
+      <c r="K40">
         <f t="shared" si="0"/>
         <v>2.15022E-3</v>
       </c>
-      <c r="I40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="2">
         <v>3800</v>
       </c>
-      <c r="B41">
+      <c r="C41" s="2">
         <v>3900</v>
       </c>
-      <c r="C41">
+      <c r="D41" s="2">
         <v>1022.39</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="4"/>
+      <c r="E41" s="2">
+        <f t="shared" si="3"/>
+        <v>40638.150000000009</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="5"/>
         <v>-1022.39</v>
       </c>
-      <c r="H41">
+      <c r="J41" s="1"/>
+      <c r="K41">
         <f t="shared" si="0"/>
         <v>2.0447799999999999E-3</v>
       </c>
-      <c r="I41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="2">
         <v>3900</v>
       </c>
-      <c r="B42">
+      <c r="C42" s="2">
         <v>4000</v>
       </c>
-      <c r="C42">
+      <c r="D42" s="2">
         <v>1622.67</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="4"/>
+      <c r="E42" s="2">
+        <f t="shared" si="3"/>
+        <v>42260.820000000007</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="5"/>
         <v>-1622.67</v>
       </c>
-      <c r="H42">
+      <c r="J42" s="1"/>
+      <c r="K42">
         <f t="shared" si="0"/>
         <v>3.2453400000000002E-3</v>
       </c>
-      <c r="I42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="2">
         <v>4000</v>
       </c>
-      <c r="B43">
+      <c r="C43" s="2">
         <v>4100</v>
       </c>
-      <c r="C43">
+      <c r="D43" s="2">
         <v>1398.15</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="1">
-        <f t="shared" si="4"/>
+      <c r="E43" s="2">
+        <f t="shared" si="3"/>
+        <v>43658.970000000008</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="5"/>
         <v>-1398.15</v>
       </c>
-      <c r="H43">
+      <c r="J43" s="1"/>
+      <c r="K43">
         <f t="shared" si="0"/>
         <v>2.7963000000000003E-3</v>
       </c>
-      <c r="I43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="2">
         <v>4100</v>
       </c>
-      <c r="B44">
+      <c r="C44" s="2">
         <v>4200</v>
       </c>
-      <c r="C44">
+      <c r="D44" s="2">
         <v>780.02</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="1">
-        <f t="shared" si="4"/>
+      <c r="E44" s="2">
+        <f t="shared" si="3"/>
+        <v>44438.990000000005</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="5"/>
         <v>-780.02</v>
       </c>
-      <c r="H44">
+      <c r="J44" s="1"/>
+      <c r="K44">
         <f t="shared" si="0"/>
         <v>1.56004E-3</v>
       </c>
-      <c r="I44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="2">
         <v>4200</v>
       </c>
-      <c r="B45">
+      <c r="C45" s="2">
         <v>4300</v>
       </c>
-      <c r="C45">
+      <c r="D45" s="2">
         <v>499.15</v>
       </c>
-      <c r="D45">
+      <c r="E45" s="2">
+        <f t="shared" si="3"/>
+        <v>44938.140000000007</v>
+      </c>
+      <c r="F45">
         <v>0.19</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="1">
-        <f t="shared" si="4"/>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="5"/>
         <v>-499.15</v>
       </c>
-      <c r="H45">
+      <c r="J45" s="1"/>
+      <c r="K45">
         <f t="shared" si="0"/>
         <v>9.9829999999999993E-4</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <f t="shared" si="1"/>
         <v>3.8000000000000001E-7</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <f t="shared" si="2"/>
         <v>1.9000000000000001E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C46">
-        <f>SUM(C3:C45)</f>
-        <v>44938.140000000007</v>
-      </c>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D46">
         <f>SUM(D3:D45)</f>
+        <v>44938.140000000007</v>
+      </c>
+      <c r="F46">
+        <f>SUM(F3:F45)</f>
         <v>34.26</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
